--- a/forms/app/pregnancy_registration.xlsx
+++ b/forms/app/pregnancy_registration.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="382">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -240,117 +240,310 @@
     <t xml:space="preserve">${date_of_LMC}=’yes’</t>
   </si>
   <si>
+    <t xml:space="preserve">. &lt;today()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can’t be a future date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one month_choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app_LMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximate date of last menstrual cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${date_of_LMC}=’no’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmc_date_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(${date_of_LMC}=’yes’,${date_of_lmp},${app_LMP})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmc_date_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(${date_of_LMC}=’yes’,’calendar’,’approx’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmc_date_raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dlmc date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">if(${lmc_date_type}=’calendar’,${lmc_date_value},if(${lmc_date_value}=’up_to_2’,2,if(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${lmc_date_value}=’up_to_3’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,3,if(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${lmc_date_value}=’up_to_3’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,3,if(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${lmc_date_value}=’up_to_4’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,4,if(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${lmc_date_value}=’btn_5_n_6’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,5.5,if(${lmc_date_value}=’btn_7_n_8’,7.5,0)))))))</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">lmc_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMC date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format-date-time(if(${lmc_date_type}=’calendar’,../lmc_date_value,date-time(decimal-date-time(today()) - round(../lmc_date_raw  * 30.5, 0))),"%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format-date-time(date-time(decimal-date-time(../lmc_date)+280),"%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days_to_edd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days To EDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round(decimal-date-time(../edd) - decimal-date-time(today()), 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days_since_lmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round(decimal-date-time(today()) - decimal-date-time(../lmc_date), 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note is: ${days_since_lmc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimated_date_delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated Date of Delivery is: &lt;span&gt;${edd}&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${days_since_lmc} &gt;= 122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. &gt; today()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must be future date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pregnancy_test_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pregnancy_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you had a pregnacy test done?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{days_since_lmc} &lt; 122</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one positive_negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What were the results of the test?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${pregnancy_test}=’yes’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refer_mother_to_facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refer mother to a health facililty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${pregnancy_test}=’no’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second_test_results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the results of the test?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${test_results}=’negative’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration and advice Client to visit health facility for further check up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second_estimated_date_delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${test_results}=’positive’ or ${second_test_results}=’positive’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anc_screening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC VISIT SCREENING</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${test_results}=’positive’ or ${second_test_results}=’positive’ or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${days_since_lmc} &gt;= 122</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">attended_anc_meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has ${name} attended ANC visit during this pregnancy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check her ANC card to see if she has started ANC visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_of_lmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When was the start date of her last menstrual cycle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${attended_anc_meeting}=’no’</t>
+  </si>
+  <si>
     <t xml:space="preserve">. &lt;=today()</t>
   </si>
   <si>
-    <t xml:space="preserve">Can’t be a future date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one month_choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app_LMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approximate date of last menstrual cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${date_of_LMC}=’no’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estimated_date_delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated Date of Delivery is:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${app_LMP} = ‘up_to_4’ or ${app_LMP}=’btn_5_n_6’ or ${app_LMP}=’btn_7_n_8’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate EDD based on date of last menstrual cycle, Trigger the PNC visit schedule based on EDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pregnancy_test_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pregnancy_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you had a pregnacy test done?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${app_LMP} = ‘up_to_2’ or ${app_LMP}=’up_to_3’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one positive_negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What were the results of the test?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${pregnancy_test}=’yes’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refer_mother_to_facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refer mother to a health facililty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${pregnancy_test}=’no’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">second_test_results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are the results of the test?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${test_results}=’negative’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration and advice Client to visit health facility for further check up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">second_estimated_date_delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${test_results}=’positive’ or ${second_test_results}=’positive’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anc_screening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANC VISIT SCREENING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${test_results}=’positive’ or ${second_test_results}=’positive’ or ${date_of_LMC}=’yes’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attended_anc_meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has ${name} attended ANC visit during this pregnancy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check her ANC card to see if she has started ANC visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_lmc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When was the start date of her last menstrual cycle?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${attended_anc_meeting}=’no’</t>
-  </si>
-  <si>
     <t xml:space="preserve">anc_meeting</t>
   </si>
   <si>
@@ -381,6 +574,12 @@
     <t xml:space="preserve">When is her next ANC visit</t>
   </si>
   <si>
+    <t xml:space="preserve">. &gt;= today()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should be future date</t>
+  </si>
+  <si>
     <t xml:space="preserve">weeks_of_lmc</t>
   </si>
   <si>
@@ -525,6 +724,12 @@
     <t xml:space="preserve">What is the mother’s MUAC score? (in cm)</t>
   </si>
   <si>
+    <t xml:space="preserve">. &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cant be negative</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHW_msg_malnutrition</t>
   </si>
   <si>
@@ -639,22 +844,22 @@
     <t xml:space="preserve">&lt;b&gt;THE MOTHER SHOULD GO TO THE FACILITY IMMEDIATELY IF SHE IS EXPERIENCING ANY OF THESE DANGER SIGNS&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">date_of_delivery</t>
+    <t xml:space="preserve">group_review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cal_date_of_delivery</t>
   </si>
   <si>
     <t xml:space="preserve">DOD</t>
   </si>
   <si>
-    <t xml:space="preserve">if(${estimated_date_delivery} != null,${estimated_date_delivery},${second_estimated_date_delivery})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list summary</t>
+    <t xml:space="preserve">${edd}</t>
   </si>
   <si>
     <t xml:space="preserve">submit</t>
@@ -676,7 +881,7 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${patient_name}&lt;/h4&gt; 
-&lt;h5 style="text-align:center;"&gt;${patient_age_in_years} years old&lt;/h5&gt; &lt;h5 style=”text-align:center;”&gt;Estimated Date of Delivery: ${date_of_delivery}&lt;/h5&gt; &lt;h5 style=”text-align:center;”&gt;Date of next ANC visit: ${date_next_visit}&lt;/h5&gt; </t>
+&lt;h5 style="text-align:center;"&gt;${patient_age_in_years} years old&lt;/h5&gt; &lt;h5 style=”text-align:center;”&gt;Estimated Date of Delivery: ${cal_date_of_delivery}&lt;/h5&gt; &lt;h5 style=”text-align:center;”&gt;Date of next ANC visit: ${date_next_visit}&lt;/h5&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">r_followup</t>
@@ -1245,7 +1450,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1336,6 +1541,18 @@
       <name val="Roboto"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1452,7 +1669,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1517,11 +1734,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1529,7 +1754,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1537,7 +1762,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1545,11 +1770,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1751,14 +1976,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z115"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="bottomRight" activeCell="E42" activeCellId="0" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
+      <selection pane="bottomRight" activeCell="C112" activeCellId="0" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2985,30 +3210,18 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>80</v>
-      </c>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="13"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -3025,54 +3238,24 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-    </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -3093,24 +3276,22 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="13"/>
+      <c r="I38" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -3129,26 +3310,24 @@
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="13"/>
+      <c r="I39" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -3167,24 +3346,24 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="7" t="s">
-        <v>93</v>
-      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="13"/>
+      <c r="I40" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -3203,30 +3382,26 @@
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="J41" s="7"/>
-      <c r="K41" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -3243,30 +3418,26 @@
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="13"/>
+      <c r="I42" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="J42" s="7"/>
-      <c r="K42" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -3283,18 +3454,24 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="D43" s="13"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="13"/>
+      <c r="I43" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3313,26 +3490,16 @@
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>101</v>
-      </c>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="13"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -3351,28 +3518,26 @@
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D45" s="13"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="13"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -3390,21 +3555,11 @@
       <c r="Z45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -3429,21 +3584,27 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E47" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="I47" s="13"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -3463,19 +3624,13 @@
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -3501,26 +3656,24 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D49" s="13"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="13"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -3539,12 +3692,20 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -3567,28 +3728,28 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="13"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
@@ -3607,22 +3768,22 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="16" t="s">
-        <v>121</v>
-      </c>
+      <c r="I52" s="13"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -3641,18 +3802,30 @@
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="7"/>
+    <row r="53" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="17"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
@@ -3670,14 +3843,28 @@
       <c r="Z53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="7"/>
+      <c r="A54" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="I54" s="13"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -3697,23 +3884,15 @@
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>123</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="13"/>
@@ -3735,28 +3914,28 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B56" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="13"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
@@ -3773,15 +3952,15 @@
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>50</v>
@@ -3792,7 +3971,9 @@
       <c r="H57" s="7"/>
       <c r="I57" s="13"/>
       <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="K57" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -3814,18 +3995,24 @@
         <v>68</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="I58" s="13"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -3845,18 +4032,20 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>133</v>
       </c>
       <c r="C59" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -3879,13 +4068,19 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -3910,17 +4105,31 @@
       <c r="Z60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="13"/>
+      <c r="A61" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="I61" s="13"/>
       <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="K61" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -3939,14 +4148,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>136</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="13"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -3971,26 +4176,32 @@
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
     </row>
-    <row r="63" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="G63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="I63" s="13"/>
       <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="K63" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
@@ -4007,24 +4218,24 @@
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
     </row>
-    <row r="64" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="13"/>
+      <c r="I64" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -4043,22 +4254,16 @@
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
     </row>
-    <row r="65" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>143</v>
-      </c>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="13"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="13"/>
+      <c r="I65" s="19"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -4077,20 +4282,12 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
     </row>
-    <row r="66" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>145</v>
-      </c>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="13"/>
-      <c r="E66" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -4114,12 +4311,22 @@
       <c r="Z66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
+      <c r="A67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="D67" s="13"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="13"/>
@@ -4141,20 +4348,28 @@
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="13"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
+      <c r="K68" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
@@ -4173,15 +4388,17 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="13"/>
+        <v>156</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -4205,15 +4422,15 @@
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
     </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>50</v>
@@ -4224,9 +4441,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="13"/>
       <c r="J70" s="7"/>
-      <c r="K70" s="7" t="s">
-        <v>151</v>
-      </c>
+      <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
@@ -4243,22 +4458,18 @@
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>155</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -4283,20 +4494,12 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>155</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -4319,20 +4522,12 @@
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
     </row>
-    <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>158</v>
-      </c>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="13"/>
-      <c r="E73" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -4357,10 +4552,14 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="D74" s="13"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -4385,17 +4584,19 @@
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" s="13"/>
+        <v>164</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -4419,18 +4620,20 @@
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
     </row>
-    <row r="76" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D76" s="13"/>
-      <c r="E76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -4453,19 +4656,17 @@
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D77" s="13"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -4489,19 +4690,19 @@
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -4525,20 +4726,12 @@
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
     </row>
-    <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>171</v>
-      </c>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="13"/>
-      <c r="E79" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -4561,20 +4754,14 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
     </row>
-    <row r="80" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -4597,19 +4784,17 @@
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
     </row>
-    <row r="81" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D81" s="13"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -4633,24 +4818,28 @@
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
     </row>
-    <row r="82" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D82" s="13"/>
+        <v>176</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="13"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="K82" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
@@ -4667,28 +4856,28 @@
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
     </row>
-    <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="13"/>
       <c r="J83" s="7"/>
-      <c r="K83" s="7" t="s">
-        <v>183</v>
-      </c>
+      <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
@@ -4705,19 +4894,21 @@
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
     </row>
-    <row r="84" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D84" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E84" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -4743,18 +4934,18 @@
     </row>
     <row r="85" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -4777,19 +4968,13 @@
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
     </row>
-    <row r="86" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="13"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -4813,19 +4998,17 @@
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
     </row>
-    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D87" s="13"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -4851,13 +5034,13 @@
     </row>
     <row r="88" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="7"/>
@@ -4885,15 +5068,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="G89" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="I89" s="13"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
@@ -4915,16 +5108,18 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D90" s="13"/>
-      <c r="E90" s="7"/>
+      <c r="E90" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -4949,18 +5144,18 @@
     </row>
     <row r="91" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="13"/>
+      <c r="E91" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -4983,18 +5178,20 @@
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
     </row>
-    <row r="92" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B92" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C92" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -5017,13 +5214,19 @@
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -5047,24 +5250,22 @@
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="13" t="s">
-        <v>207</v>
-      </c>
+      <c r="I94" s="13"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -5083,20 +5284,32 @@
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="G95" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="I95" s="13"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
+      <c r="K95" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
@@ -5113,299 +5326,706 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+    <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+    </row>
+    <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+    </row>
+    <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+    </row>
+    <row r="99" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="7"/>
+    </row>
+    <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="W96" s="4"/>
-      <c r="X96" s="4"/>
-      <c r="Y96" s="4"/>
-      <c r="Z96" s="4"/>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="8"/>
-      <c r="X97" s="8"/>
-      <c r="Y97" s="8"/>
-      <c r="Z97" s="8"/>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="8"/>
-      <c r="X98" s="8"/>
-      <c r="Y98" s="8"/>
-      <c r="Z98" s="8"/>
-    </row>
-    <row r="99" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="8"/>
-      <c r="X99" s="8"/>
-      <c r="Y99" s="8"/>
-      <c r="Z99" s="8"/>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="8"/>
-      <c r="X100" s="8"/>
-      <c r="Y100" s="8"/>
-      <c r="Z100" s="8"/>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="X101" s="8"/>
-      <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="11" t="s">
+      <c r="B102" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+    </row>
+    <row r="103" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+    </row>
+    <row r="104" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="7"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="7"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="7"/>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="8"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="8"/>
+      <c r="Z110" s="8"/>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="8"/>
+      <c r="X111" s="8"/>
+      <c r="Y111" s="8"/>
+      <c r="Z111" s="8"/>
+    </row>
+    <row r="112" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="8"/>
+      <c r="X112" s="8"/>
+      <c r="Y112" s="8"/>
+      <c r="Z112" s="8"/>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="8"/>
+      <c r="X113" s="8"/>
+      <c r="Y113" s="8"/>
+      <c r="Z113" s="8"/>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8"/>
+      <c r="X114" s="8"/>
+      <c r="Y114" s="8"/>
+      <c r="Z114" s="8"/>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Z51 A54:Z1083 A52:H53 J52:Z53">
+  <conditionalFormatting sqref="A45:Z46 A110:Z1096 A64:H65 J64:Z65 A66:Z105 A107:Z108 A48:Z63 A47:K47 M47:Z47 A1:Z35">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z51 A54:Z1068 A52:H53 J52:Z53">
+  <conditionalFormatting sqref="A45:Z46 A110:Z1081 A64:H65 J64:Z65 A66:Z105 A107:Z108 A48:Z63 A47:K47 M47:Z47 A1:Z35">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z51 A54:Z1083 A52:H53 J52:Z53">
+  <conditionalFormatting sqref="A45:Z46 A110:Z1096 A64:H65 J64:Z65 A66:Z105 A107:Z108 A48:Z63 A47:K47 M47:Z47 A1:Z35">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z51 A54:Z1083 A52:H53 J52:Z53">
+  <conditionalFormatting sqref="A45:Z46 A110:Z1096 A64:H65 J64:Z65 A66:Z105 A107:Z108 A48:Z63 A47:K47 M47:Z47 A1:Z35">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1077, "begin group") = COUNTIF($A$1:$A$1077, "end group"))</formula>
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1090, "begin group") = COUNTIF($A$1:$A$1090, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1068, "begin group") = COUNTIF($A$1:$A$1077, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I1083 I1:I51">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1081, "begin group") = COUNTIF($A$1:$A$1090, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I110:I1096 I45:I63 I66:I105 I107:I108 I1:I35">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1083">
+  <conditionalFormatting sqref="C110:C1096 C45:C105 C107:C108 C1:C35">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1083">
+  <conditionalFormatting sqref="B110:B1096 B45:B105 B107:B108 B1:B35">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1083">
+  <conditionalFormatting sqref="A110:A1096 A45:A105 A107:A108 A1:A35">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B1076">
+  <conditionalFormatting sqref="B110:B1089 B45:B105 B107:B108 B2:B35">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>COUNTIF($B$2:$B$1076,B2)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1089,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
@@ -5468,23 +6088,2358 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1068">
+  <conditionalFormatting sqref="H110:H1081 H45:H105 H107:H108 H1:H35">
     <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z51 A54:Z1068 A52:H53 J52:Z53">
+  <conditionalFormatting sqref="A45:Z46 A110:Z1081 A64:H65 J64:Z65 A66:Z105 A107:Z108 A48:Z63 A47:K47 M47:Z47 A1:Z35">
     <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z51 A54:Z1083 A52:H53 J52:Z53">
+  <conditionalFormatting sqref="A45:Z46 A110:Z1096 A64:H65 J64:Z65 A66:Z105 A107:Z108 A48:Z63 A47:K47 M47:Z47 A1:Z35">
     <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="containsText" priority="28" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="containsText" priority="35" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A109 = "end group"), NOT($A109 = "end repeat"), NOT($A109 = "")), $B109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>COUNTIF($B$2:$B$1088,B109)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="containsText" priority="43" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A109 = "end group"), NOT($A109 = "end repeat"), NOT($A109 = "")), $C109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="containsText" priority="50" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="containsText" priority="56" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="containsText" priority="62" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="containsText" priority="68" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="containsText" priority="74" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G109 = ""), $H109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="containsText" priority="81" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($I109 = "", $A109 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109">
+    <cfRule type="containsText" priority="88" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109">
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109">
+    <cfRule type="containsText" priority="94" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L109">
+    <cfRule type="containsText" priority="100" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L109">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L109">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L109">
+    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L109">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L109">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M109">
+    <cfRule type="containsText" priority="106" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M109">
+    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M109">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M109">
+    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M109">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M109">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109">
+    <cfRule type="containsText" priority="112" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109">
+    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O109">
+    <cfRule type="containsText" priority="118" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O109">
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O109">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O109">
+    <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O109">
+    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O109">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P109">
+    <cfRule type="containsText" priority="124" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P109">
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P109">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P109">
+    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P109">
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P109">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q109">
+    <cfRule type="containsText" priority="130" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q109">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q109">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q109">
+    <cfRule type="cellIs" priority="133" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q109">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q109">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R109">
+    <cfRule type="containsText" priority="136" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R109">
+    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R109">
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R109">
+    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R109">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R109">
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S109">
+    <cfRule type="containsText" priority="142" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S109">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S109">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S109">
+    <cfRule type="cellIs" priority="145" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S109">
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S109">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T109">
+    <cfRule type="containsText" priority="148" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T109">
+    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T109">
+    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T109">
+    <cfRule type="cellIs" priority="151" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T109">
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T109">
+    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U109">
+    <cfRule type="containsText" priority="154" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U109">
+    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U109">
+    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U109">
+    <cfRule type="cellIs" priority="157" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U109">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U109">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V109">
+    <cfRule type="containsText" priority="160" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V109">
+    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V109">
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V109">
+    <cfRule type="cellIs" priority="163" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V109">
+    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V109">
+    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W109">
+    <cfRule type="containsText" priority="166" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W109">
+    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W109">
+    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W109">
+    <cfRule type="cellIs" priority="169" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W109">
+    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W109">
+    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X109">
+    <cfRule type="containsText" priority="172" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X109">
+    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X109">
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X109">
+    <cfRule type="cellIs" priority="175" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X109">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X109">
+    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y109">
+    <cfRule type="containsText" priority="178" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y109">
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y109">
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y109">
+    <cfRule type="cellIs" priority="181" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y109">
+    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y109">
+    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z109">
+    <cfRule type="containsText" priority="184" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z109">
+    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A109="begin group", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z109">
+    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A109="end group", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z109">
+    <cfRule type="cellIs" priority="187" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z109">
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A109="begin repeat", NOT($B109 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z109">
+    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A109="end repeat", $B109 = "", $C109 = "", $D109 = "", $E109 = "", $F109 = "", $G109 = "", $H109 = "", $I109 = "", $J109 = "", $K109 = "", $L109 = "", $M109 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
+    <cfRule type="containsText" priority="190" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
+    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
+    <cfRule type="expression" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
+    <cfRule type="cellIs" priority="193" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
+    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
+    <cfRule type="expression" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 A37:A42">
+    <cfRule type="containsText" priority="196" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 A37:A42">
+    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 A37:A42">
+    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 A37:A42">
+    <cfRule type="cellIs" priority="199" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 A37:A42">
+    <cfRule type="cellIs" priority="200" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 A37:A42">
+    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 A37:A42">
+    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 B37:B42">
+    <cfRule type="containsText" priority="203" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 B37:B42">
+    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 B37:B42">
+    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 B37:B42">
+    <cfRule type="cellIs" priority="206" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 B37:B42">
+    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 B37:B42">
+    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>COUNTIF($B$2:$B$1089,B37)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 B37:B42">
+    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 B37:B42">
+    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44 C37:C42">
+    <cfRule type="containsText" priority="211" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44 C37:C42">
+    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44 C37:C42">
+    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44 C37:C42">
+    <cfRule type="cellIs" priority="214" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44 C37:C42">
+    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44 C37:C42">
+    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44 C37:C42">
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44 D37:D42">
+    <cfRule type="containsText" priority="218" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44 D37:D42">
+    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44 D37:D42">
+    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44 D37:D42">
+    <cfRule type="cellIs" priority="221" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44 D37:D42">
+    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44 D37:D42">
+    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44 E37:E42">
+    <cfRule type="containsText" priority="224" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44 E37:E42">
+    <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44 E37:E42">
+    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44 E37:E42">
+    <cfRule type="cellIs" priority="227" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44 E37:E42">
+    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44 E37:E42">
+    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44 F37:F42">
+    <cfRule type="containsText" priority="230" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44 F37:F42">
+    <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44 F37:F42">
+    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44 F37:F42">
+    <cfRule type="cellIs" priority="233" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44 F37:F42">
+    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44 F37:F42">
+    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44 G37:G42">
+    <cfRule type="containsText" priority="236" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44 G37:G42">
+    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44 G37:G42">
+    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44 G37:G42">
+    <cfRule type="cellIs" priority="239" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44 G37:G42">
+    <cfRule type="expression" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44 G37:G42">
+    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44 H37:H42">
+    <cfRule type="containsText" priority="242" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44 H37:H42">
+    <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44 H37:H42">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44 H37:H42">
+    <cfRule type="cellIs" priority="245" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44 H37:H42">
+    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44 H37:H42">
+    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44 H37:H42">
+    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I41">
+    <cfRule type="containsText" priority="249" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I41">
+    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I41">
+    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I41">
+    <cfRule type="cellIs" priority="252" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I41">
+    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($I37 = "", $A37 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I41">
+    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I41">
+    <cfRule type="expression" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44 J37:J42">
+    <cfRule type="containsText" priority="256" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44 J37:J42">
+    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44 J37:J42">
+    <cfRule type="expression" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44 J37:J42">
+    <cfRule type="cellIs" priority="259" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44 J37:J42">
+    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44 J37:J42">
+    <cfRule type="expression" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44 K37:K42">
+    <cfRule type="containsText" priority="262" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44 K37:K42">
+    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44 K37:K42">
+    <cfRule type="expression" priority="264" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44 K37:K42">
+    <cfRule type="cellIs" priority="265" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44 K37:K42">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44 K37:K42">
+    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44 L37:L42">
+    <cfRule type="containsText" priority="268" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44 L37:L42">
+    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44 L37:L42">
+    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44 L37:L42">
+    <cfRule type="cellIs" priority="271" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44 L37:L42">
+    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44 L37:L42">
+    <cfRule type="expression" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44 M37:M42">
+    <cfRule type="containsText" priority="274" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44 M37:M42">
+    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44 M37:M42">
+    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44 M37:M42">
+    <cfRule type="cellIs" priority="277" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44 M37:M42">
+    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44 M37:M42">
+    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44 N37:N42">
+    <cfRule type="containsText" priority="280" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44 N37:N42">
+    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44 N37:N42">
+    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44 N37:N42">
+    <cfRule type="cellIs" priority="283" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44 N37:N42">
+    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44 N37:N42">
+    <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44 O37:O42">
+    <cfRule type="containsText" priority="286" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44 O37:O42">
+    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44 O37:O42">
+    <cfRule type="expression" priority="288" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44 O37:O42">
+    <cfRule type="cellIs" priority="289" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44 O37:O42">
+    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44 O37:O42">
+    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44 P37:P42">
+    <cfRule type="containsText" priority="292" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44 P37:P42">
+    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44 P37:P42">
+    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44 P37:P42">
+    <cfRule type="cellIs" priority="295" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44 P37:P42">
+    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44 P37:P42">
+    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44 Q37:Q42">
+    <cfRule type="containsText" priority="298" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44 Q37:Q42">
+    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44 Q37:Q42">
+    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44 Q37:Q42">
+    <cfRule type="cellIs" priority="301" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44 Q37:Q42">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44 Q37:Q42">
+    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44 R37:R42">
+    <cfRule type="containsText" priority="304" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44 R37:R42">
+    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44 R37:R42">
+    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44 R37:R42">
+    <cfRule type="cellIs" priority="307" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44 R37:R42">
+    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44 R37:R42">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44 S37:S42">
+    <cfRule type="containsText" priority="310" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44 S37:S42">
+    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44 S37:S42">
+    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44 S37:S42">
+    <cfRule type="cellIs" priority="313" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44 S37:S42">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44 S37:S42">
+    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44 T37:T42">
+    <cfRule type="containsText" priority="316" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44 T37:T42">
+    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44 T37:T42">
+    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44 T37:T42">
+    <cfRule type="cellIs" priority="319" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44 T37:T42">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44 T37:T42">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44 U37:U42">
+    <cfRule type="containsText" priority="322" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44 U37:U42">
+    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44 U37:U42">
+    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44 U37:U42">
+    <cfRule type="cellIs" priority="325" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44 U37:U42">
+    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44 U37:U42">
+    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44 V37:V42">
+    <cfRule type="containsText" priority="328" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44 V37:V42">
+    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44 V37:V42">
+    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44 V37:V42">
+    <cfRule type="cellIs" priority="331" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44 V37:V42">
+    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44 V37:V42">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44 W37:W42">
+    <cfRule type="containsText" priority="334" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44 W37:W42">
+    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44 W37:W42">
+    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44 W37:W42">
+    <cfRule type="cellIs" priority="337" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44 W37:W42">
+    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44 W37:W42">
+    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X44 X37:X42">
+    <cfRule type="containsText" priority="340" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X44 X37:X42">
+    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X44 X37:X42">
+    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X44 X37:X42">
+    <cfRule type="cellIs" priority="343" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X44 X37:X42">
+    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X44 X37:X42">
+    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44 Y37:Y42">
+    <cfRule type="containsText" priority="346" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44 Y37:Y42">
+    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44 Y37:Y42">
+    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44 Y37:Y42">
+    <cfRule type="cellIs" priority="349" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44 Y37:Y42">
+    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44 Y37:Y42">
+    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44 Z37:Z42">
+    <cfRule type="containsText" priority="352" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44 Z37:Z42">
+    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44 Z37:Z42">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44 Z37:Z42">
+    <cfRule type="cellIs" priority="355" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44 Z37:Z42">
+    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44 Z37:Z42">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44 I42">
+    <cfRule type="containsText" priority="358" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44 I42">
+    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44 I42">
+    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44 I42">
+    <cfRule type="cellIs" priority="361" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44 I42">
+    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($I42 = "", $A42 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44 I42">
+    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44 I42">
+    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="containsText" priority="365" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="cellIs" priority="368" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="cellIs" priority="369" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="containsText" priority="372" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="cellIs" priority="375" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>COUNTIF($B$2:$B$1087,B43)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="containsText" priority="380" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="cellIs" priority="383" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="containsText" priority="387" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" priority="390" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="containsText" priority="393" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" priority="396" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="containsText" priority="399" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" priority="402" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="containsText" priority="405" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="cellIs" priority="408" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="containsText" priority="411" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" priority="414" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="containsText" priority="418" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="cellIs" priority="421" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($I43 = "", $A43 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="containsText" priority="425" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="expression" priority="427" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="cellIs" priority="428" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="containsText" priority="431" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="cellIs" priority="434" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43">
+    <cfRule type="containsText" priority="437" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43">
+    <cfRule type="expression" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43">
+    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43">
+    <cfRule type="cellIs" priority="440" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43">
+    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43">
+    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43">
+    <cfRule type="containsText" priority="443" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43">
+    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43">
+    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43">
+    <cfRule type="cellIs" priority="446" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43">
+    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43">
+    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43">
+    <cfRule type="containsText" priority="449" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43">
+    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43">
+    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43">
+    <cfRule type="cellIs" priority="452" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43">
+    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43">
+    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
+    <cfRule type="containsText" priority="455" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
+    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
+    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
+    <cfRule type="cellIs" priority="458" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
+    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
+    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
+    <cfRule type="containsText" priority="461" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
+    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
+    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
+    <cfRule type="cellIs" priority="464" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
+    <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
+    <cfRule type="expression" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43">
+    <cfRule type="containsText" priority="467" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43">
+    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43">
+    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43">
+    <cfRule type="cellIs" priority="470" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43">
+    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43">
+    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43">
+    <cfRule type="containsText" priority="473" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43">
+    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43">
+    <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43">
+    <cfRule type="cellIs" priority="476" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43">
+    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43">
+    <cfRule type="expression" priority="478" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43">
+    <cfRule type="containsText" priority="479" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43">
+    <cfRule type="expression" priority="480" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43">
+    <cfRule type="expression" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43">
+    <cfRule type="cellIs" priority="482" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43">
+    <cfRule type="expression" priority="483" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43">
+    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T43">
+    <cfRule type="containsText" priority="485" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T43">
+    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T43">
+    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T43">
+    <cfRule type="cellIs" priority="488" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T43">
+    <cfRule type="expression" priority="489" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T43">
+    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="containsText" priority="491" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="cellIs" priority="494" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V43">
+    <cfRule type="containsText" priority="497" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V43">
+    <cfRule type="expression" priority="498" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V43">
+    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V43">
+    <cfRule type="cellIs" priority="500" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V43">
+    <cfRule type="expression" priority="501" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V43">
+    <cfRule type="expression" priority="502" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
+    <cfRule type="containsText" priority="503" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
+    <cfRule type="expression" priority="504" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
+    <cfRule type="expression" priority="505" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
+    <cfRule type="cellIs" priority="506" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
+    <cfRule type="expression" priority="507" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
+    <cfRule type="expression" priority="508" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X43">
+    <cfRule type="containsText" priority="509" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X43">
+    <cfRule type="expression" priority="510" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X43">
+    <cfRule type="expression" priority="511" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X43">
+    <cfRule type="cellIs" priority="512" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X43">
+    <cfRule type="expression" priority="513" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X43">
+    <cfRule type="expression" priority="514" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y43">
+    <cfRule type="containsText" priority="515" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y43">
+    <cfRule type="expression" priority="516" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y43">
+    <cfRule type="expression" priority="517" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y43">
+    <cfRule type="cellIs" priority="518" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y43">
+    <cfRule type="expression" priority="519" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y43">
+    <cfRule type="expression" priority="520" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z43">
+    <cfRule type="containsText" priority="521" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z43">
+    <cfRule type="expression" priority="522" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z43">
+    <cfRule type="expression" priority="523" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z43">
+    <cfRule type="cellIs" priority="524" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z43">
+    <cfRule type="expression" priority="525" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z43">
+    <cfRule type="expression" priority="526" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D102" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D35 D37:D105 D107:D115" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5507,9 +8462,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5521,712 +8476,712 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>225</v>
+      <c r="C2" s="23" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>227</v>
+      <c r="A3" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>230</v>
+      <c r="A5" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>232</v>
+      <c r="A6" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>234</v>
+      <c r="A7" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>244</v>
+        <v>263</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6262,41 +9217,41 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>349</v>
+      <c r="A1" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" s="24" t="n">
+        <v>378</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="26" t="n">
         <f aca="true">NOW()</f>
-        <v>43693.4686185797</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>353</v>
+        <v>43695.6136779632</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
